--- a/target/test-classes/testData/testdata.xlsx
+++ b/target/test-classes/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-workspace\AutomationPOC\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911B2CAF-3F37-4CEB-9C6A-4857903D73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8759D55-5C49-4340-8A85-365F381F77AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F85DF42-A78A-4CCA-8C6C-EE8CA2FC898F}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
